--- a/biology/Botanique/Podocarpus_coriaceus/Podocarpus_coriaceus.xlsx
+++ b/biology/Botanique/Podocarpus_coriaceus/Podocarpus_coriaceus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Podocarpus macrophyllus est une espèce de plantes de la famille des Podocarpacées. C'est un conifère qu'on trouve dans les forêts de montagne de certaines îles des Caraïbes, en particulier à Porto Rico.
 Son bois est facile à travailler et a été abondamment utilisé pour fabriquer des meubles, ce qui a entrainé une rareté des spécimens adultes.
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Podocarpus macrophyllus est un arbre sempervirent pouvant atteindre 9 mètres. Son écorce est écailleuse et s'enlève par bandes entières. Le duramen est jaune ou brun.
 Les aiguilles sont disposées alternativement d'un côté puis de l'autre des brindilles. Elles sont pratiquement sessiles. Elles sont longues, étroites, coriaces et leurs faces inférieures sont jaunes ou brunes.
@@ -546,7 +560,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">On le trouve à Saint-Christophe et Niévès, Montserrat, Porto Rico, Sainte-Lucie, Trinité-et-Tobago ainsi qu'à la Guadeloupe, à la Dominique et à la Martinique.
 </t>
@@ -577,7 +593,9 @@
           <t>Sources</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>(en) Référence Tropicos : Podocarpus coriaceus Rich. &amp; A. Rich.  (+ liste sous-taxons)
 (en) Référence UICN : espèce Podocarpus coriaceus Rich. &amp; A.Rich. (consulté le 30 mai 2015)
